--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>2018.05.04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00:00
+13:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30:00
+13:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -402,6 +420,18 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,9 +442,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,17 +456,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +766,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,37 +781,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -816,7 +834,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -837,7 +855,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -858,7 +876,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -867,7 +885,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -888,7 +906,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -899,7 +917,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -908,7 +926,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -929,7 +947,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -950,7 +968,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -970,28 +988,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="28"/>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1000,7 +1042,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -1009,7 +1051,7 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1018,7 +1060,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="22"/>
@@ -1029,7 +1071,7 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -1038,7 +1080,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="22"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1047,7 +1089,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1056,7 +1098,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="16"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -1065,7 +1107,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1076,7 +1118,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="16"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -1085,7 +1127,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="16"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -1094,7 +1136,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="22"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -1103,7 +1145,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="16"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -1114,25 +1156,26 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>46</v>
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,8 +179,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>12:30:00
+18:00
+24:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>9:30:00
-13:00</t>
+13:00
+21:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -420,6 +427,27 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -436,27 +464,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,7 +773,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,37 +788,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -834,7 +841,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -855,7 +862,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -876,7 +883,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -885,7 +892,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -906,7 +913,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -917,7 +924,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -926,7 +933,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -947,7 +954,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -968,7 +975,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -989,7 +996,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="35" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1011,19 +1018,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="35"/>
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>25</v>
@@ -1033,7 +1040,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -1042,7 +1049,7 @@
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="22"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -1051,7 +1058,7 @@
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1060,7 +1067,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="22"/>
@@ -1071,7 +1078,7 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -1080,7 +1087,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="22"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -1089,7 +1096,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1098,7 +1105,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="16"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -1107,7 +1114,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1118,7 +1125,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="16"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -1127,7 +1134,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="16"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -1136,7 +1143,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="22"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -1145,7 +1152,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="16"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -1156,22 +1163,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>61.5</v>
+        <v>64.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -188,6 +188,41 @@
     <t>9:30:00
 13:00
 21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00:00
+21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30:00
+24:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30:00
+13:30:00
+20:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30:00
+17:30
+23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UI Design
+(Project Management)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -414,9 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,37 +820,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -841,7 +873,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -862,7 +894,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -883,7 +915,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -892,7 +924,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -913,7 +945,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -924,7 +956,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -933,7 +965,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -954,7 +986,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -975,7 +1007,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -996,7 +1028,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1012,14 +1044,14 @@
         <v>7.5</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1033,32 +1065,56 @@
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
+      <c r="B16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1067,95 +1123,95 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="18"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="35"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="18"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="18"/>
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
@@ -1163,7 +1219,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>64.5</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -209,20 +209,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>User Stories &amp; UI Design
+(Project Management)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>9:30:00
 13:30:00
-20:00</t>
+22:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>12:30:00
-17:30
-23:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Stories &amp; UI Design
-(Project Management)</t>
+15:00
+24:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,6 +459,24 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,24 +496,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +805,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,37 +820,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -894,7 +894,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -924,7 +924,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -956,7 +956,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -965,7 +965,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -986,7 +986,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1044,14 +1044,14 @@
         <v>7.5</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1065,14 +1065,14 @@
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1086,35 +1086,35 @@
         <v>5.5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1123,7 +1123,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
@@ -1134,7 +1134,7 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1143,7 +1143,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1152,7 +1152,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1161,7 +1161,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1170,7 +1170,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1181,7 +1181,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="16"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1190,7 +1190,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1199,7 +1199,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1208,7 +1208,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1219,22 +1219,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>80</v>
+        <v>76.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -222,7 +222,7 @@
   <si>
     <t>12:30:00
 15:00
-24:00</t>
+01:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -459,6 +459,27 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,27 +496,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +805,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,37 +820,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="34" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -873,7 +873,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -894,7 +894,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -924,7 +924,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -956,7 +956,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -965,7 +965,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -986,7 +986,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -1028,7 +1028,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1051,7 +1051,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1093,7 +1093,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="2">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>44</v>
@@ -1114,7 +1114,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1123,7 +1123,7 @@
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
@@ -1134,7 +1134,7 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1143,7 +1143,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1152,7 +1152,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1161,7 +1161,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1170,7 +1170,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1181,7 +1181,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="16"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1190,7 +1190,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1199,7 +1199,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1208,7 +1208,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1219,22 +1219,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -223,6 +223,18 @@
     <t>12:30:00
 15:00
 01:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30:00
+17:00
+23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00:00
+13:30
+21:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +817,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1113,14 +1125,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="34" t="s">
@@ -1219,7 +1243,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>77.5</v>
+        <v>84.5</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -235,6 +235,10 @@
     <t>11:00:00
 13:30
 21:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,6 +475,24 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,24 +512,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -816,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -832,37 +836,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -885,7 +889,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -906,7 +910,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -927,7 +931,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -936,7 +940,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -957,7 +961,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -968,7 +972,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -977,7 +981,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -998,7 +1002,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1019,7 +1023,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1044,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1063,7 +1067,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
@@ -1084,7 +1088,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
@@ -1105,7 +1109,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -1126,9 +1130,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>48</v>
@@ -1147,7 +1151,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="21"/>
@@ -1158,7 +1162,7 @@
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1167,7 +1171,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1176,7 +1180,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1185,7 +1189,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1194,7 +1198,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1205,7 +1209,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="16"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1214,7 +1218,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1223,7 +1227,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1232,7 +1236,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1248,17 +1252,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,10 +142,6 @@
   <si>
     <t>9:30:00
 14:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approved</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -209,11 +205,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>User Stories &amp; UI Design
-(Project Management)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9:30:00
 13:30:00
 22:00</t>
@@ -239,6 +230,67 @@
   </si>
   <si>
     <t>2018.05.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30:00
+13:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30:00
+18:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approved
+Not Paid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approved
+Not Paid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approved
+Not Paid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UI Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UI Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UI Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UI Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UI Design</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30:00
+13:30
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30:00
+17:30
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,6 +527,27 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,27 +564,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -820,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,38 +888,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
-        <v>31</v>
+      <c r="A3" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
@@ -884,12 +936,12 @@
       <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>21</v>
+      <c r="G3" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -905,12 +957,12 @@
       <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>21</v>
+      <c r="G4" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -931,7 +983,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -940,7 +992,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -956,12 +1008,12 @@
       <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>30</v>
+      <c r="G7" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -972,7 +1024,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -980,19 +1032,19 @@
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="32"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="10">
-        <v>0.5625</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.77083333333333337</v>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>25</v>
@@ -1002,9 +1054,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>27</v>
@@ -1023,15 +1075,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2">
         <v>7</v>
@@ -1044,125 +1096,137 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>7.5</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2">
         <v>11</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="2">
         <v>5.5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>45</v>
-      </c>
       <c r="D16" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2">
         <v>7.5</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>7</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
@@ -1171,7 +1235,7 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1180,7 +1244,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1189,7 +1253,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1198,7 +1262,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1209,7 +1273,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="16"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1218,7 +1282,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1227,7 +1291,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1236,7 +1300,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1247,22 +1311,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>84.5</v>
+        <v>93.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -282,15 +282,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">9:30:00
+    <t>9:30:00
 13:30
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12:30:00
+21:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30:00
 17:30
-</t>
+24:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1216,7 +1216,7 @@
         <v>60</v>
       </c>
       <c r="E18" s="2">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>57</v>
@@ -1311,7 +1311,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>93.5</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -291,6 +291,16 @@
     <t>12:30:00
 17:30
 24:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30:00
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,6 +537,24 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,24 +574,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -888,37 +898,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -941,7 +951,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -962,7 +972,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -983,7 +993,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -992,7 +1002,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -1013,7 +1023,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -1024,7 +1034,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1033,7 +1043,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1054,7 +1064,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1075,7 +1085,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1096,7 +1106,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1119,7 +1129,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1140,7 +1150,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1161,7 +1171,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
@@ -1182,7 +1192,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
@@ -1203,7 +1213,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1225,17 +1235,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1244,7 +1266,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1253,7 +1275,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1262,7 +1284,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1273,7 +1295,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="16"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1282,7 +1304,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1291,7 +1313,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1300,7 +1322,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1311,22 +1333,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>97</v>
+        <v>107.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -294,13 +294,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">10:00:00
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12:30:00
-</t>
+    <t>2018.05.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30:00
+17:30:00
+24:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00:00
+13:30:00
+22:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,6 +543,27 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,27 +580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -882,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -898,37 +904,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -951,7 +957,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -972,7 +978,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -993,7 +999,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1002,7 +1008,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -1023,7 +1029,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -1034,7 +1040,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1043,7 +1049,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1064,7 +1070,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1085,7 +1091,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1106,7 +1112,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1129,7 +1135,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1150,7 +1156,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1177,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
@@ -1192,7 +1198,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
@@ -1213,7 +1219,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1235,19 +1241,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+    <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
       <c r="B19" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="2">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>25</v>
@@ -1257,7 +1263,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="21"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -1266,7 +1272,7 @@
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1275,7 +1281,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1284,7 +1290,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1295,7 +1301,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="16"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1304,7 +1310,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1313,7 +1319,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1322,7 +1328,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1333,22 +1339,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>107.5</v>
+        <v>106.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -307,6 +307,22 @@
     <t>9:00:00
 13:30:00
 22:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00:00
+14:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13:30:00
+17:30:00
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -543,6 +559,24 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,24 +596,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -904,37 +920,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -957,7 +973,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -978,7 +994,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1015,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1008,7 +1024,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -1029,7 +1045,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -1040,7 +1056,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1049,7 +1065,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1086,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1091,7 +1107,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1128,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1135,7 +1151,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1156,7 +1172,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1177,7 +1193,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
@@ -1198,7 +1214,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
@@ -1219,7 +1235,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1242,7 +1258,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
@@ -1262,17 +1278,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
@@ -1281,7 +1309,7 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="16"/>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -1290,7 +1318,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="16"/>
@@ -1301,7 +1329,7 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="16"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
@@ -1310,7 +1338,7 @@
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1319,7 +1347,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1328,7 +1356,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1339,22 +1367,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>106.5</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -322,6 +322,28 @@
   <si>
     <t xml:space="preserve">13:30:00
 17:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Stories &amp; UI Design
+Update "System Setup" "Project management"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00:00
+14:30:00
+21:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13:30:00
+18:30:00
+23:00:00
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -905,7 +927,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1299,14 +1321,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="B21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
@@ -1367,7 +1401,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>114</v>
+        <v>124.5</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -344,6 +344,17 @@
     <t xml:space="preserve">13:30:00
 18:30:00
 23:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30:00
+18:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UI Design
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -926,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1342,14 +1353,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="B22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
@@ -1401,7 +1424,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>124.5</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -354,7 +354,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2018.05.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">User Stories &amp; UI Design
+updates to "System seutp"
+Supplier management
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UI Design
+Supplier management
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9:30:00
+13:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11:30:00
+17:30:00
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -938,7 +966,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1353,10 +1381,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
       <c r="B22" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>65</v>
@@ -1368,22 +1396,34 @@
         <v>7.5</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="B23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
@@ -1424,7 +1464,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -383,6 +383,22 @@
   <si>
     <t xml:space="preserve">11:30:00
 17:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00:00
+17:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00:00
+14:00:00
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -620,6 +636,27 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -636,27 +673,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,37 +997,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="34" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1034,7 +1050,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1071,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1092,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1085,7 +1101,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
@@ -1106,7 +1122,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="16"/>
@@ -1117,7 +1133,7 @@
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="25"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -1126,7 +1142,7 @@
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="25"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1163,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="25"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1168,7 +1184,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1189,7 +1205,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1212,7 +1228,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1233,7 +1249,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1254,7 +1270,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
@@ -1275,7 +1291,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
@@ -1296,7 +1312,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1319,7 +1335,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
@@ -1340,7 +1356,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10" t="s">
         <v>64</v>
       </c>
@@ -1361,7 +1377,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -1382,7 +1398,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="10" t="s">
         <v>72</v>
       </c>
@@ -1403,7 +1419,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1425,17 +1441,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
+    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
+      <c r="B24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="16"/>
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
@@ -1444,7 +1472,7 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="21"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -1453,7 +1481,7 @@
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="16"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -1464,22 +1492,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>138</v>
+        <v>143.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -391,14 +391,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">12:00:00
+    <t>10:00:00
+14:00:00
+22:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00:00
 17:30:00
+23:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UI Design
+Supplier management
+Advanced Settings
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">10:00:00
+    <t>2018.05.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00:00
 14:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00:00
+16:30:00
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -438,7 +461,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,12 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -601,6 +618,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,32 +629,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -981,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -993,106 +998,106 @@
     <col min="4" max="4" width="15.25" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="39.125" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="2">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="2">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1101,48 +1106,48 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="32"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1163,7 +1168,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="32"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1184,7 +1189,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1210,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1228,7 +1233,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1249,7 +1254,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="34"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1270,7 +1275,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="34"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
@@ -1291,7 +1296,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
@@ -1312,7 +1317,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1335,7 +1340,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
@@ -1356,7 +1361,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="10" t="s">
         <v>64</v>
       </c>
@@ -1377,7 +1382,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -1398,7 +1403,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="34"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="10" t="s">
         <v>72</v>
       </c>
@@ -1419,7 +1424,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1441,58 +1446,70 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A24" s="30"/>
       <c r="B24" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>79</v>
-      </c>
       <c r="E24" s="2">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="34"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
+    <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A25" s="30"/>
+      <c r="B25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="34"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="34"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>143.5</v>
+        <v>151.5</v>
       </c>
     </row>
   </sheetData>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -422,6 +422,22 @@
   <si>
     <t xml:space="preserve">13:00:00
 16:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.05.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00:00
+14:00:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00:00
+18:30:00
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -582,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,14 +649,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,24 +691,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1002,40 +1015,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1055,8 +1068,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -1076,8 +1089,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1097,7 +1110,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1106,8 +1119,8 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1127,7 +1140,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="11"/>
@@ -1138,7 +1151,7 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1147,7 +1160,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1181,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1189,7 +1202,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1210,7 +1223,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1233,7 +1246,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1254,7 +1267,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="30"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1275,7 +1288,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
@@ -1296,7 +1309,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
@@ -1317,7 +1330,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1340,7 +1353,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
@@ -1361,7 +1374,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="10" t="s">
         <v>64</v>
       </c>
@@ -1382,7 +1395,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -1403,7 +1416,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="10" t="s">
         <v>72</v>
       </c>
@@ -1424,7 +1437,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1447,7 +1460,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="30"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="10" t="s">
         <v>78</v>
       </c>
@@ -1468,7 +1481,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="30"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="10" t="s">
         <v>82</v>
       </c>
@@ -1489,42 +1502,54 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="30"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
+    <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>151.5</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-05.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -438,6 +438,13 @@
   <si>
     <t xml:space="preserve">13:00:00
 18:30:00
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories &amp; UI Design
+Advanced Settings
+System Setup updates
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -654,6 +661,27 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -670,27 +698,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,37 +1022,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="18" t="s">
@@ -1068,7 +1075,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1096,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1110,7 +1117,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1119,7 +1126,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="18" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1147,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="11"/>
@@ -1151,7 +1158,7 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -1160,7 +1167,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1188,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
@@ -1202,7 +1209,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
@@ -1223,7 +1230,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1246,7 +1253,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1267,7 +1274,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1295,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="10" t="s">
         <v>42</v>
       </c>
@@ -1309,7 +1316,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
@@ -1330,7 +1337,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -1353,7 +1360,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="10" t="s">
         <v>61</v>
       </c>
@@ -1374,7 +1381,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="10" t="s">
         <v>64</v>
       </c>
@@ -1395,7 +1402,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -1416,7 +1423,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="10" t="s">
         <v>72</v>
       </c>
@@ -1437,7 +1444,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1460,7 +1467,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="10" t="s">
         <v>78</v>
       </c>
@@ -1481,7 +1488,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="10" t="s">
         <v>82</v>
       </c>
@@ -1502,7 +1509,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1511,7 +1518,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="10" t="s">
         <v>85</v>
       </c>
@@ -1525,7 +1532,7 @@
         <v>8.5</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>10</v>
@@ -1539,17 +1546,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
